--- a/rider/weekly/2016_46.xlsx
+++ b/rider/weekly/2016_46.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>289</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>254</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>277.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.67</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>253.33</c:v>
+                  <c:v>255.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248</c:v>
+                  <c:v>249.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243.33</c:v>
+                  <c:v>253.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.5</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D2">
-        <v>275</v>
+        <v>277.33</v>
       </c>
       <c r="E2">
         <v>90.59999999999999</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D3">
-        <v>224.67</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>90.76000000000001</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D4">
-        <v>253.33</v>
+        <v>255.33</v>
       </c>
       <c r="E4">
         <v>90.92</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>249.33</v>
       </c>
       <c r="E5">
         <v>91.08</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>243.33</v>
+        <v>253.67</v>
       </c>
       <c r="E6">
         <v>91.23999999999999</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>116.5</v>
       </c>
       <c r="E7">
         <v>91.41</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>91.56999999999999</v>
